--- a/Results/News-Headlines/ngram_range_tests.xlsx
+++ b/Results/News-Headlines/ngram_range_tests.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20730"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21CC76BA-9C08-4515-B368-62FD514E5EFF}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="7">
   <si>
     <t>Feature Type</t>
   </si>
@@ -33,11 +34,14 @@
   <si>
     <t>TF-IDF</t>
   </si>
+  <si>
+    <t>Multinomial NB</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -87,7 +91,7 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -121,17 +125,11 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-GB"/>
-              <a:t>Effect</a:t>
+              <a:t>News Headlines dataset increasing ngrams upper bound</a:t>
             </a:r>
-            <a:r>
-              <a:rPr lang="en-GB" baseline="0"/>
-              <a:t> of increasing the maximum number of n-grams on classification</a:t>
-            </a:r>
-            <a:endParaRPr lang="en-GB"/>
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -249,39 +247,44 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>0.75847660752285895</c:v>
+                  <c:v>0.762089673731421</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.76947905642401704</c:v>
+                  <c:v>0.76391548560276901</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.76962120269601098</c:v>
+                  <c:v>0.76363071217843403</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.76869160340929998</c:v>
+                  <c:v>0.76287039805304102</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.76854791629243702</c:v>
+                  <c:v>0.76253741764786298</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.76845786606730604</c:v>
+                  <c:v>0.76337913085874398</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.76812984393795003</c:v>
+                  <c:v>0.76293805184530405</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.76920386373050698</c:v>
+                  <c:v>0.76312392561428199</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.76886538044655095</c:v>
+                  <c:v>0.76236844266350401</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.76881327115903897</c:v>
+                  <c:v>0.76239976844618995</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-7BE9-49E0-8998-5179B3186D99}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -368,39 +371,44 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>0.71421955697518003</c:v>
+                  <c:v>0.73557556339716301</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.73292200425037501</c:v>
+                  <c:v>0.74348774030363995</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.73456778986556803</c:v>
+                  <c:v>0.741737224424037</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.73458044943604595</c:v>
+                  <c:v>0.74194877644616697</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.73320257692021895</c:v>
+                  <c:v>0.74230371409360496</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.73346332441195805</c:v>
+                  <c:v>0.74223673296878201</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.73380392241522396</c:v>
+                  <c:v>0.74148382536870205</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.73402395668106901</c:v>
+                  <c:v>0.74210691319254696</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.73497389192010898</c:v>
+                  <c:v>0.74272828542143599</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.73314231492761195</c:v>
+                  <c:v>0.74193477559385401</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-7BE9-49E0-8998-5179B3186D99}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -460,13 +468,12 @@
                 </a:r>
                 <a:r>
                   <a:rPr lang="en-GB" baseline="0"/>
-                  <a:t> no. n-grams</a:t>
+                  <a:t> no. ngrams</a:t>
                 </a:r>
                 <a:endParaRPr lang="en-GB"/>
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -586,7 +593,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -667,7 +673,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1307,7 +1312,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -1401,6 +1412,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -1436,6 +1464,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1611,11 +1656,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K42" sqref="K42"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="S14" sqref="S14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1662,262 +1707,262 @@
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B5">
-        <v>0.75847660752285895</v>
+        <v>0.762089673731421</v>
       </c>
       <c r="C5">
         <v>1</v>
       </c>
       <c r="D5">
-        <v>6.6991090774536103E-3</v>
+        <v>6.9006919860839797E-3</v>
       </c>
       <c r="H5" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="I5">
-        <v>0.71421955697518003</v>
+        <v>0.73557556339716301</v>
       </c>
       <c r="J5">
         <v>1</v>
       </c>
       <c r="K5">
-        <v>7.6486587524414E-3</v>
+        <v>7.7877044677734297E-3</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B6">
-        <v>0.76947905642401704</v>
+        <v>0.76391548560276901</v>
       </c>
       <c r="C6">
         <v>2</v>
       </c>
       <c r="D6">
-        <v>7.3464155197143499E-3</v>
+        <v>5.9000253677368103E-3</v>
       </c>
       <c r="H6" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="I6">
-        <v>0.73292200425037501</v>
+        <v>0.74348774030363995</v>
       </c>
       <c r="J6">
         <v>2</v>
       </c>
       <c r="K6">
-        <v>7.9964399337768503E-3</v>
+        <v>2.7959108352661102E-3</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B7">
-        <v>0.76962120269601098</v>
+        <v>0.76363071217843403</v>
       </c>
       <c r="C7">
         <v>3</v>
       </c>
       <c r="D7">
-        <v>6.1969995498657197E-3</v>
+        <v>2.7999639511108302E-3</v>
       </c>
       <c r="H7" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="I7">
-        <v>0.73456778986556803</v>
+        <v>0.741737224424037</v>
       </c>
       <c r="J7">
         <v>3</v>
       </c>
       <c r="K7">
-        <v>6.1973333358764596E-3</v>
+        <v>6.3998699188232396E-3</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B8">
-        <v>0.76869160340929998</v>
+        <v>0.76287039805304102</v>
       </c>
       <c r="C8">
         <v>4</v>
       </c>
       <c r="D8">
-        <v>6.5074682235717702E-3</v>
+        <v>7.3356628417968698E-3</v>
       </c>
       <c r="H8" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="I8">
-        <v>0.73458044943604595</v>
+        <v>0.74194877644616697</v>
       </c>
       <c r="J8">
         <v>4</v>
       </c>
       <c r="K8">
-        <v>9.5958471298217708E-3</v>
+        <v>5.5034160614013602E-3</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B9">
-        <v>0.76854791629243702</v>
+        <v>0.76253741764786298</v>
       </c>
       <c r="C9">
         <v>5</v>
       </c>
       <c r="D9">
-        <v>6.3990592956542896E-3</v>
+        <v>7.6869726181030204E-3</v>
       </c>
       <c r="H9" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="I9">
-        <v>0.73320257692021895</v>
+        <v>0.74230371409360496</v>
       </c>
       <c r="J9">
         <v>5</v>
       </c>
       <c r="K9">
-        <v>6.2969446182250897E-3</v>
+        <v>6.40382766723632E-3</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B10">
-        <v>0.76845786606730604</v>
+        <v>0.76337913085874398</v>
       </c>
       <c r="C10">
         <v>6</v>
       </c>
       <c r="D10">
-        <v>6.3961505889892504E-3</v>
+        <v>2.7544021606445302E-3</v>
       </c>
       <c r="H10" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="I10">
-        <v>0.73346332441195805</v>
+        <v>0.74223673296878201</v>
       </c>
       <c r="J10">
         <v>6</v>
       </c>
       <c r="K10">
-        <v>5.6001424789428704E-3</v>
+        <v>6.0999155044555598E-3</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B11">
-        <v>0.76812984393795003</v>
+        <v>0.76293805184530405</v>
       </c>
       <c r="C11">
         <v>7</v>
       </c>
       <c r="D11">
-        <v>5.9986114501953099E-3</v>
+        <v>5.5443286895751898E-3</v>
       </c>
       <c r="H11" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="I11">
-        <v>0.73380392241522396</v>
+        <v>0.74148382536870205</v>
       </c>
       <c r="J11">
         <v>7</v>
       </c>
       <c r="K11">
-        <v>5.8973073959350496E-3</v>
+        <v>5.2999973297119104E-3</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B12">
-        <v>0.76920386373050698</v>
+        <v>0.76312392561428199</v>
       </c>
       <c r="C12">
         <v>8</v>
       </c>
       <c r="D12">
-        <v>6.1978816986083896E-3</v>
+        <v>5.2163839340209897E-3</v>
       </c>
       <c r="H12" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="I12">
-        <v>0.73402395668106901</v>
+        <v>0.74210691319254696</v>
       </c>
       <c r="J12">
         <v>8</v>
       </c>
       <c r="K12">
-        <v>6.6967964172363198E-3</v>
+        <v>1.55534744262695E-3</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B13">
-        <v>0.76886538044655095</v>
+        <v>0.76236844266350401</v>
       </c>
       <c r="C13">
         <v>9</v>
       </c>
       <c r="D13">
-        <v>7.2976589202880804E-3</v>
+        <v>3.7602424621582002E-3</v>
       </c>
       <c r="H13" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="I13">
-        <v>0.73497389192010898</v>
+        <v>0.74272828542143599</v>
       </c>
       <c r="J13">
         <v>9</v>
       </c>
       <c r="K13">
-        <v>6.5958499908447196E-3</v>
+        <v>5.7996988296508704E-3</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B14">
-        <v>0.76881327115903897</v>
+        <v>0.76239976844618995</v>
       </c>
       <c r="C14">
         <v>10</v>
       </c>
       <c r="D14">
-        <v>6.5982818603515601E-3</v>
+        <v>7.4010133743286103E-3</v>
       </c>
       <c r="H14" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="I14">
-        <v>0.73314231492761195</v>
+        <v>0.74193477559385401</v>
       </c>
       <c r="J14">
         <v>10</v>
       </c>
       <c r="K14">
-        <v>6.3002586364746E-3</v>
+        <v>6.2996387481689398E-3</v>
       </c>
     </row>
   </sheetData>
